--- a/mWater_usage/reports/mWater_usage_reports_final_excluding_hanwash.xlsx
+++ b/mWater_usage/reports/mWater_usage_reports_final_excluding_hanwash.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/mWater_usage/reports/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0470CCC-A7F2-9A4D-9DC2-FDDC5C887B4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Summary" sheetId="1" r:id="rId1"/>
@@ -18,12 +12,12 @@
     <sheet name="active_members_committees" sheetId="3" r:id="rId3"/>
     <sheet name="Clean Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1483" uniqueCount="142">
   <si>
     <t>Metric</t>
   </si>
@@ -31,6 +25,12 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Metric Units</t>
+  </si>
+  <si>
+    <t>Number of Unique Users in the mWater HANWASH Platform</t>
+  </si>
+  <si>
     <t>Number of Active Users last 12 month</t>
   </si>
   <si>
@@ -52,10 +52,10 @@
     <t>Overall Usage Percentage last 12 months</t>
   </si>
   <si>
-    <t>14 %</t>
-  </si>
-  <si>
-    <t>58 %</t>
+    <t>users</t>
+  </si>
+  <si>
+    <t>%</t>
   </si>
   <si>
     <t>user_ID</t>
@@ -448,11 +448,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,34 +504,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -569,7 +560,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -603,7 +594,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -638,10 +628,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -814,81 +803,110 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="32.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
         <v>52</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
         <v>10</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -897,876 +915,869 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="A1:C78"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="148" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>82</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>70</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>73</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>41</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>10</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>88</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>43</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>87</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>56</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>9</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>31</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>79</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>83</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>33</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>46</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>60</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>36</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>28</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>75</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="C66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>86</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>57</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>54</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>19</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>89</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73">
+        <v>85</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74">
+        <v>63</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75">
+        <v>49</v>
+      </c>
+      <c r="B75" t="s">
+        <v>89</v>
+      </c>
+      <c r="C75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77">
+        <v>52</v>
+      </c>
+      <c r="B77" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="C77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78">
+        <v>58</v>
+      </c>
+      <c r="B78" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>82</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>68</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>42</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>61</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>70</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>22</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>34</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>73</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>26</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>6</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
-        <v>41</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
-        <v>23</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
-        <v>74</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
-        <v>76</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>7</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>10</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
-        <v>77</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
-        <v>37</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>15</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
-        <v>88</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
-        <v>25</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
-        <v>11</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
-        <v>27</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
-        <v>43</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
-        <v>21</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
-        <v>87</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
-        <v>13</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
-        <v>38</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
-        <v>56</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
-        <v>24</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
-        <v>9</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
-        <v>53</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
-        <v>50</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
-        <v>59</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
-        <v>31</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
-        <v>14</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
-        <v>66</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
-        <v>47</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
-        <v>79</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
-        <v>83</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
-        <v>40</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
-        <v>33</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
-        <v>46</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
-        <v>60</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
-        <v>4</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
-        <v>64</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
-        <v>65</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
-        <v>36</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
-        <v>28</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
-        <v>5</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
-        <v>78</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
-        <v>72</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
-        <v>75</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
-        <v>81</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
-        <v>32</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
-        <v>86</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
-        <v>57</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
-        <v>3</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
-        <v>54</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
-        <v>19</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
-        <v>89</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
-        <v>85</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
-        <v>63</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
-        <v>49</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C75" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
-        <v>0</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C76" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
-        <v>52</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
-        <v>58</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C78" s="3" t="s">
-        <v>102</v>
+      <c r="C78" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1775,172 +1786,165 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>69</v>
+      </c>
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>84</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>39</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>71</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>62</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>67</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>29</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>69</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>84</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>39</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>48</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>102</v>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1949,139 +1953,117 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P2" s="2">
-        <v>45573.837553275473</v>
+        <v>45573.83755327547</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2090,54 +2072,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P3" s="2">
-        <v>45575.757361516196</v>
+        <v>45575.7573615162</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2146,54 +2128,54 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P4" s="2">
-        <v>45558.856411747693</v>
+        <v>45558.85641174769</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2202,51 +2184,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P5" s="2">
         <v>44432.11537511574</v>
@@ -2258,54 +2240,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C6">
         <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N6" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P6" s="2">
-        <v>44153.882262465268</v>
+        <v>44153.88226246527</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2314,54 +2296,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C7">
         <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P7" s="2">
-        <v>45328.965585162026</v>
+        <v>45328.96558516203</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2370,54 +2352,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C8">
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="2">
-        <v>44487.710196064807</v>
+        <v>44487.71019606481</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2426,51 +2408,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O9" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P9" s="2">
         <v>45407.76314722222</v>
@@ -2482,54 +2464,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C10">
         <v>61</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P10" s="2">
-        <v>45532.616590949066</v>
+        <v>45532.61659094907</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2538,51 +2520,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C11">
         <v>70</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I11" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O11" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P11" s="2">
         <v>43872.75106696759</v>
@@ -2594,54 +2576,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C12">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I12" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P12" s="2">
-        <v>45489.940476018521</v>
+        <v>45489.94047601852</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2650,54 +2632,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C13">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O13" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P13" s="2">
-        <v>44670.994073773138</v>
+        <v>44670.99407377314</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2706,54 +2688,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C14">
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M14" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O14" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P14" s="2">
-        <v>44172.845448368047</v>
+        <v>44172.84544836805</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2762,54 +2744,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C15">
         <v>71</v>
       </c>
       <c r="D15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="O15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" s="2">
-        <v>45570.170393298613</v>
+        <v>45570.17039329861</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2818,110 +2800,110 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C16">
         <v>34</v>
       </c>
       <c r="D16" t="s">
+        <v>140</v>
+      </c>
+      <c r="E16" t="s">
+        <v>140</v>
+      </c>
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+      <c r="G16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" t="s">
+        <v>140</v>
+      </c>
+      <c r="K16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="s">
+        <v>140</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>141</v>
+      </c>
+      <c r="P16" s="2">
+        <v>44089.78314246528</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
         <v>138</v>
-      </c>
-      <c r="E16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" t="s">
-        <v>138</v>
-      </c>
-      <c r="H16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" t="s">
-        <v>139</v>
-      </c>
-      <c r="J16" t="s">
-        <v>138</v>
-      </c>
-      <c r="K16" t="s">
-        <v>138</v>
-      </c>
-      <c r="L16" t="s">
-        <v>138</v>
-      </c>
-      <c r="M16" t="s">
-        <v>138</v>
-      </c>
-      <c r="N16" t="s">
-        <v>139</v>
-      </c>
-      <c r="O16" t="s">
-        <v>139</v>
-      </c>
-      <c r="P16" s="2">
-        <v>44089.783142465283</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>136</v>
       </c>
       <c r="C17">
         <v>73</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P17" s="2">
-        <v>44657.588863090277</v>
+        <v>44657.58886309028</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2930,51 +2912,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C18">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O18" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P18" s="2">
         <v>45222.9650056713</v>
@@ -2986,166 +2968,166 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C19">
         <v>6</v>
       </c>
       <c r="D19" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" t="s">
+        <v>140</v>
+      </c>
+      <c r="F19" t="s">
+        <v>140</v>
+      </c>
+      <c r="G19" t="s">
+        <v>140</v>
+      </c>
+      <c r="H19" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" t="s">
+        <v>141</v>
+      </c>
+      <c r="J19" t="s">
+        <v>140</v>
+      </c>
+      <c r="K19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="s">
+        <v>140</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>141</v>
+      </c>
+      <c r="P19" s="2">
+        <v>45225.96849716435</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" t="s">
         <v>139</v>
-      </c>
-      <c r="E19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" t="s">
-        <v>138</v>
-      </c>
-      <c r="H19" t="s">
-        <v>138</v>
-      </c>
-      <c r="I19" t="s">
-        <v>139</v>
-      </c>
-      <c r="J19" t="s">
-        <v>138</v>
-      </c>
-      <c r="K19" t="s">
-        <v>138</v>
-      </c>
-      <c r="L19" t="s">
-        <v>138</v>
-      </c>
-      <c r="M19" t="s">
-        <v>138</v>
-      </c>
-      <c r="N19" t="s">
-        <v>138</v>
-      </c>
-      <c r="O19" t="s">
-        <v>139</v>
-      </c>
-      <c r="P19" s="2">
-        <v>45225.968497164351</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>137</v>
       </c>
       <c r="C20">
         <v>41</v>
       </c>
       <c r="D20" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" t="s">
+        <v>140</v>
+      </c>
+      <c r="G20" t="s">
+        <v>140</v>
+      </c>
+      <c r="H20" t="s">
+        <v>140</v>
+      </c>
+      <c r="I20" t="s">
+        <v>141</v>
+      </c>
+      <c r="J20" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" t="s">
+        <v>140</v>
+      </c>
+      <c r="M20" t="s">
+        <v>140</v>
+      </c>
+      <c r="N20" t="s">
+        <v>140</v>
+      </c>
+      <c r="O20" t="s">
+        <v>141</v>
+      </c>
+      <c r="P20" s="2">
+        <v>45222.9501906713</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
         <v>139</v>
-      </c>
-      <c r="E20" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" t="s">
-        <v>138</v>
-      </c>
-      <c r="G20" t="s">
-        <v>138</v>
-      </c>
-      <c r="H20" t="s">
-        <v>138</v>
-      </c>
-      <c r="I20" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" t="s">
-        <v>138</v>
-      </c>
-      <c r="K20" t="s">
-        <v>138</v>
-      </c>
-      <c r="L20" t="s">
-        <v>138</v>
-      </c>
-      <c r="M20" t="s">
-        <v>138</v>
-      </c>
-      <c r="N20" t="s">
-        <v>138</v>
-      </c>
-      <c r="O20" t="s">
-        <v>139</v>
-      </c>
-      <c r="P20" s="2">
-        <v>45222.950190671298</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" t="s">
-        <v>137</v>
       </c>
       <c r="C21">
         <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N21" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P21" s="2">
-        <v>45225.971258750003</v>
+        <v>45225.97125875</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3154,278 +3136,278 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C22">
         <v>74</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H22" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" t="s">
+        <v>140</v>
+      </c>
+      <c r="L22" t="s">
+        <v>140</v>
+      </c>
+      <c r="M22" t="s">
+        <v>140</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+      <c r="O22" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="2">
+        <v>45545.82930024306</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>139</v>
-      </c>
-      <c r="J22" t="s">
-        <v>138</v>
-      </c>
-      <c r="K22" t="s">
-        <v>138</v>
-      </c>
-      <c r="L22" t="s">
-        <v>138</v>
-      </c>
-      <c r="M22" t="s">
-        <v>138</v>
-      </c>
-      <c r="N22" t="s">
-        <v>138</v>
-      </c>
-      <c r="O22" t="s">
-        <v>138</v>
-      </c>
-      <c r="P22" s="2">
-        <v>45545.829300243058</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>137</v>
       </c>
       <c r="C23">
         <v>76</v>
       </c>
       <c r="D23" t="s">
+        <v>141</v>
+      </c>
+      <c r="E23" t="s">
+        <v>140</v>
+      </c>
+      <c r="F23" t="s">
+        <v>140</v>
+      </c>
+      <c r="G23" t="s">
+        <v>140</v>
+      </c>
+      <c r="H23" t="s">
+        <v>140</v>
+      </c>
+      <c r="I23" t="s">
+        <v>141</v>
+      </c>
+      <c r="J23" t="s">
+        <v>140</v>
+      </c>
+      <c r="K23" t="s">
+        <v>140</v>
+      </c>
+      <c r="L23" t="s">
+        <v>140</v>
+      </c>
+      <c r="M23" t="s">
+        <v>140</v>
+      </c>
+      <c r="N23" t="s">
+        <v>140</v>
+      </c>
+      <c r="O23" t="s">
+        <v>141</v>
+      </c>
+      <c r="P23" s="2">
+        <v>45225.97871137731</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" t="s">
         <v>139</v>
-      </c>
-      <c r="E23" t="s">
-        <v>138</v>
-      </c>
-      <c r="F23" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" t="s">
-        <v>138</v>
-      </c>
-      <c r="H23" t="s">
-        <v>138</v>
-      </c>
-      <c r="I23" t="s">
-        <v>139</v>
-      </c>
-      <c r="J23" t="s">
-        <v>138</v>
-      </c>
-      <c r="K23" t="s">
-        <v>138</v>
-      </c>
-      <c r="L23" t="s">
-        <v>138</v>
-      </c>
-      <c r="M23" t="s">
-        <v>138</v>
-      </c>
-      <c r="N23" t="s">
-        <v>138</v>
-      </c>
-      <c r="O23" t="s">
-        <v>139</v>
-      </c>
-      <c r="P23" s="2">
-        <v>45225.978711377313</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>137</v>
       </c>
       <c r="C24">
         <v>20</v>
       </c>
       <c r="D24" t="s">
+        <v>141</v>
+      </c>
+      <c r="E24" t="s">
+        <v>140</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>140</v>
+      </c>
+      <c r="H24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I24" t="s">
+        <v>141</v>
+      </c>
+      <c r="J24" t="s">
+        <v>140</v>
+      </c>
+      <c r="K24" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" t="s">
+        <v>140</v>
+      </c>
+      <c r="M24" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24" t="s">
+        <v>140</v>
+      </c>
+      <c r="O24" t="s">
+        <v>141</v>
+      </c>
+      <c r="P24" s="2">
+        <v>45222.97463372685</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" t="s">
         <v>139</v>
-      </c>
-      <c r="E24" t="s">
-        <v>138</v>
-      </c>
-      <c r="F24" t="s">
-        <v>138</v>
-      </c>
-      <c r="G24" t="s">
-        <v>138</v>
-      </c>
-      <c r="H24" t="s">
-        <v>138</v>
-      </c>
-      <c r="I24" t="s">
-        <v>139</v>
-      </c>
-      <c r="J24" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" t="s">
-        <v>138</v>
-      </c>
-      <c r="L24" t="s">
-        <v>138</v>
-      </c>
-      <c r="M24" t="s">
-        <v>138</v>
-      </c>
-      <c r="N24" t="s">
-        <v>138</v>
-      </c>
-      <c r="O24" t="s">
-        <v>139</v>
-      </c>
-      <c r="P24" s="2">
-        <v>45222.974633726852</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
       </c>
       <c r="C25">
         <v>7</v>
       </c>
       <c r="D25" t="s">
+        <v>141</v>
+      </c>
+      <c r="E25" t="s">
+        <v>140</v>
+      </c>
+      <c r="F25" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" t="s">
+        <v>140</v>
+      </c>
+      <c r="H25" t="s">
+        <v>140</v>
+      </c>
+      <c r="I25" t="s">
+        <v>141</v>
+      </c>
+      <c r="J25" t="s">
+        <v>140</v>
+      </c>
+      <c r="K25" t="s">
+        <v>140</v>
+      </c>
+      <c r="L25" t="s">
+        <v>140</v>
+      </c>
+      <c r="M25" t="s">
+        <v>140</v>
+      </c>
+      <c r="N25" t="s">
+        <v>140</v>
+      </c>
+      <c r="O25" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="2">
+        <v>45385.62758825231</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
         <v>139</v>
-      </c>
-      <c r="E25" t="s">
-        <v>138</v>
-      </c>
-      <c r="F25" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" t="s">
-        <v>138</v>
-      </c>
-      <c r="I25" t="s">
-        <v>139</v>
-      </c>
-      <c r="J25" t="s">
-        <v>138</v>
-      </c>
-      <c r="K25" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" t="s">
-        <v>138</v>
-      </c>
-      <c r="M25" t="s">
-        <v>138</v>
-      </c>
-      <c r="N25" t="s">
-        <v>138</v>
-      </c>
-      <c r="O25" t="s">
-        <v>139</v>
-      </c>
-      <c r="P25" s="2">
-        <v>45385.627588252311</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
       </c>
       <c r="C26">
         <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O26" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P26" s="2">
-        <v>45228.482085115742</v>
+        <v>45228.48208511574</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3434,110 +3416,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C27">
         <v>77</v>
       </c>
       <c r="D27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I27" t="s">
+        <v>141</v>
+      </c>
+      <c r="J27" t="s">
+        <v>140</v>
+      </c>
+      <c r="K27" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N27" t="s">
+        <v>140</v>
+      </c>
+      <c r="O27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" s="2">
+        <v>45477.03112273148</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
         <v>139</v>
-      </c>
-      <c r="J27" t="s">
-        <v>138</v>
-      </c>
-      <c r="K27" t="s">
-        <v>138</v>
-      </c>
-      <c r="L27" t="s">
-        <v>138</v>
-      </c>
-      <c r="M27" t="s">
-        <v>138</v>
-      </c>
-      <c r="N27" t="s">
-        <v>138</v>
-      </c>
-      <c r="O27" t="s">
-        <v>138</v>
-      </c>
-      <c r="P27" s="2">
-        <v>45477.031122731481</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" t="s">
-        <v>137</v>
       </c>
       <c r="C28">
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N28" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P28" s="2">
-        <v>45225.131642499997</v>
+        <v>45225.1316425</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3546,163 +3528,163 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H29" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J29" t="s">
+        <v>140</v>
+      </c>
+      <c r="K29" t="s">
+        <v>140</v>
+      </c>
+      <c r="L29" t="s">
+        <v>140</v>
+      </c>
+      <c r="M29" t="s">
+        <v>140</v>
+      </c>
+      <c r="N29" t="s">
+        <v>140</v>
+      </c>
+      <c r="O29" t="s">
+        <v>140</v>
+      </c>
+      <c r="P29" s="2">
+        <v>45222.97311947917</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
         <v>139</v>
-      </c>
-      <c r="J29" t="s">
-        <v>138</v>
-      </c>
-      <c r="K29" t="s">
-        <v>138</v>
-      </c>
-      <c r="L29" t="s">
-        <v>138</v>
-      </c>
-      <c r="M29" t="s">
-        <v>138</v>
-      </c>
-      <c r="N29" t="s">
-        <v>138</v>
-      </c>
-      <c r="O29" t="s">
-        <v>138</v>
-      </c>
-      <c r="P29" s="2">
-        <v>45222.973119479168</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-      <c r="B30" t="s">
-        <v>137</v>
       </c>
       <c r="C30">
         <v>88</v>
       </c>
       <c r="D30" t="s">
+        <v>141</v>
+      </c>
+      <c r="E30" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" t="s">
+        <v>140</v>
+      </c>
+      <c r="G30" t="s">
+        <v>140</v>
+      </c>
+      <c r="H30" t="s">
+        <v>140</v>
+      </c>
+      <c r="I30" t="s">
+        <v>141</v>
+      </c>
+      <c r="J30" t="s">
+        <v>140</v>
+      </c>
+      <c r="K30" t="s">
+        <v>140</v>
+      </c>
+      <c r="L30" t="s">
+        <v>140</v>
+      </c>
+      <c r="M30" t="s">
+        <v>140</v>
+      </c>
+      <c r="N30" t="s">
+        <v>140</v>
+      </c>
+      <c r="O30" t="s">
+        <v>141</v>
+      </c>
+      <c r="P30" s="2">
+        <v>45222.97498119213</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
         <v>139</v>
-      </c>
-      <c r="E30" t="s">
-        <v>138</v>
-      </c>
-      <c r="F30" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" t="s">
-        <v>138</v>
-      </c>
-      <c r="H30" t="s">
-        <v>138</v>
-      </c>
-      <c r="I30" t="s">
-        <v>139</v>
-      </c>
-      <c r="J30" t="s">
-        <v>138</v>
-      </c>
-      <c r="K30" t="s">
-        <v>138</v>
-      </c>
-      <c r="L30" t="s">
-        <v>138</v>
-      </c>
-      <c r="M30" t="s">
-        <v>138</v>
-      </c>
-      <c r="N30" t="s">
-        <v>138</v>
-      </c>
-      <c r="O30" t="s">
-        <v>139</v>
-      </c>
-      <c r="P30" s="2">
-        <v>45222.974981192128</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-      <c r="B31" t="s">
-        <v>137</v>
       </c>
       <c r="C31">
         <v>25</v>
       </c>
       <c r="D31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N31" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O31" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P31" s="2">
         <v>45225.98609943287</v>
@@ -3714,110 +3696,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C32">
         <v>11</v>
       </c>
       <c r="D32" t="s">
+        <v>141</v>
+      </c>
+      <c r="E32" t="s">
+        <v>140</v>
+      </c>
+      <c r="F32" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H32" t="s">
+        <v>140</v>
+      </c>
+      <c r="I32" t="s">
+        <v>141</v>
+      </c>
+      <c r="J32" t="s">
+        <v>140</v>
+      </c>
+      <c r="K32" t="s">
+        <v>140</v>
+      </c>
+      <c r="L32" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" t="s">
+        <v>140</v>
+      </c>
+      <c r="N32" t="s">
+        <v>140</v>
+      </c>
+      <c r="O32" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="2">
+        <v>45510.86495271991</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" t="s">
+        <v>108</v>
+      </c>
+      <c r="B33" t="s">
         <v>139</v>
-      </c>
-      <c r="E32" t="s">
-        <v>138</v>
-      </c>
-      <c r="F32" t="s">
-        <v>138</v>
-      </c>
-      <c r="G32" t="s">
-        <v>138</v>
-      </c>
-      <c r="H32" t="s">
-        <v>138</v>
-      </c>
-      <c r="I32" t="s">
-        <v>139</v>
-      </c>
-      <c r="J32" t="s">
-        <v>138</v>
-      </c>
-      <c r="K32" t="s">
-        <v>138</v>
-      </c>
-      <c r="L32" t="s">
-        <v>138</v>
-      </c>
-      <c r="M32" t="s">
-        <v>138</v>
-      </c>
-      <c r="N32" t="s">
-        <v>138</v>
-      </c>
-      <c r="O32" t="s">
-        <v>139</v>
-      </c>
-      <c r="P32" s="2">
-        <v>45510.864952719909</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>106</v>
-      </c>
-      <c r="B33" t="s">
-        <v>137</v>
       </c>
       <c r="C33">
         <v>62</v>
       </c>
       <c r="D33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N33" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O33" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P33" s="2">
-        <v>45575.015147893508</v>
+        <v>45575.01514789351</v>
       </c>
       <c r="Q33">
         <v>14</v>
@@ -3826,110 +3808,110 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C34">
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E34" t="s">
+        <v>140</v>
+      </c>
+      <c r="F34" t="s">
+        <v>140</v>
+      </c>
+      <c r="G34" t="s">
+        <v>140</v>
+      </c>
+      <c r="H34" t="s">
+        <v>140</v>
+      </c>
+      <c r="I34" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" t="s">
+        <v>140</v>
+      </c>
+      <c r="K34" t="s">
+        <v>140</v>
+      </c>
+      <c r="L34" t="s">
+        <v>140</v>
+      </c>
+      <c r="M34" t="s">
+        <v>140</v>
+      </c>
+      <c r="N34" t="s">
+        <v>140</v>
+      </c>
+      <c r="O34" t="s">
+        <v>141</v>
+      </c>
+      <c r="P34" s="2">
+        <v>45222.98438766204</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
         <v>138</v>
-      </c>
-      <c r="F34" t="s">
-        <v>138</v>
-      </c>
-      <c r="G34" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" t="s">
-        <v>138</v>
-      </c>
-      <c r="I34" t="s">
-        <v>139</v>
-      </c>
-      <c r="J34" t="s">
-        <v>138</v>
-      </c>
-      <c r="K34" t="s">
-        <v>138</v>
-      </c>
-      <c r="L34" t="s">
-        <v>138</v>
-      </c>
-      <c r="M34" t="s">
-        <v>138</v>
-      </c>
-      <c r="N34" t="s">
-        <v>138</v>
-      </c>
-      <c r="O34" t="s">
-        <v>139</v>
-      </c>
-      <c r="P34" s="2">
-        <v>45222.984387662043</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>43</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
       </c>
       <c r="C35">
         <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N35" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O35" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P35" s="2">
-        <v>45455.918596099538</v>
+        <v>45455.91859609954</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3938,54 +3920,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C36">
         <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N36" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O36" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P36" s="2">
-        <v>45572.978553032408</v>
+        <v>45572.97855303241</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3994,54 +3976,54 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C37">
         <v>21</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N37" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O37" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P37" s="2">
-        <v>45481.939640150456</v>
+        <v>45481.93964015046</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -4050,54 +4032,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N38" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O38" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P38" s="2">
-        <v>45194.981217893517</v>
+        <v>45194.98121789352</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4106,54 +4088,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C39">
         <v>87</v>
       </c>
       <c r="D39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N39" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O39" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P39" s="2">
-        <v>45194.988259895843</v>
+        <v>45194.98825989584</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -4162,54 +4144,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C40">
         <v>35</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P40" s="2">
-        <v>45482.795363020843</v>
+        <v>45482.79536302084</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4218,54 +4200,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C41">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N41" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P41" s="2">
-        <v>45482.795363020843</v>
+        <v>45482.79536302084</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4274,54 +4256,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42">
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O42" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P42" s="2">
-        <v>45574.650179236109</v>
+        <v>45574.65017923611</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4330,54 +4312,54 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C43">
         <v>29</v>
       </c>
       <c r="D43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I43" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O43" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P43" s="2">
-        <v>45575.865501168977</v>
+        <v>45575.86550116898</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4386,51 +4368,51 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C44">
         <v>38</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I44" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P44" s="2">
         <v>45166.89570155093</v>
@@ -4442,54 +4424,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P45" s="2">
-        <v>45516.569716689817</v>
+        <v>45516.56971668982</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4498,54 +4480,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>24</v>
       </c>
       <c r="D46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O46" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P46" s="2">
-        <v>44567.075308240739</v>
+        <v>44567.07530824074</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4554,54 +4536,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B47" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C47">
         <v>69</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I47" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O47" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P47" s="2">
-        <v>45573.571426527778</v>
+        <v>45573.57142652778</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -4610,54 +4592,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B48" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C48">
         <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I48" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O48" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P48" s="2">
-        <v>45554.646257997687</v>
+        <v>45554.64625799769</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4666,54 +4648,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B49" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C49">
         <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I49" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O49" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P49" s="2">
-        <v>45567.767923356478</v>
+        <v>45567.76792335648</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4722,54 +4704,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B50" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>50</v>
       </c>
       <c r="D50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I50" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O50" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P50" s="2">
-        <v>45330.240513657409</v>
+        <v>45330.24051365741</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4778,54 +4760,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B51" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C51">
         <v>30</v>
       </c>
       <c r="D51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I51" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P51" s="2">
-        <v>45571.698459976848</v>
+        <v>45571.69845997685</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -4834,54 +4816,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C52">
         <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I52" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O52" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P52" s="2">
-        <v>44704.830960243053</v>
+        <v>44704.83096024305</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4890,54 +4872,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C53">
         <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I53" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O53" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P53" s="2">
-        <v>45349.610131504633</v>
+        <v>45349.61013150463</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -4946,54 +4928,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C54">
         <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I54" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O54" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P54" s="2">
-        <v>43628.531121250002</v>
+        <v>43628.53112125</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -5002,54 +4984,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C55">
         <v>66</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I55" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P55" s="2">
-        <v>43856.653556863428</v>
+        <v>43856.65355686343</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5058,54 +5040,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C56">
         <v>47</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P56" s="2">
-        <v>44664.758556724541</v>
+        <v>44664.75855672454</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -5114,54 +5096,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C57">
         <v>79</v>
       </c>
       <c r="D57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I57" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O57" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P57" s="2">
-        <v>45453.807435671297</v>
+        <v>45453.8074356713</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5170,54 +5152,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C58">
         <v>83</v>
       </c>
       <c r="D58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I58" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P58" s="2">
-        <v>45453.419864444448</v>
+        <v>45453.41986444445</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5226,54 +5208,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C59">
         <v>40</v>
       </c>
       <c r="D59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I59" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O59" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P59" s="2">
-        <v>44391.620820023149</v>
+        <v>44391.62082002315</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5282,54 +5264,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C60">
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I60" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O60" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P60" s="2">
-        <v>44270.480041435178</v>
+        <v>44270.48004143518</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -5338,54 +5320,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C61">
         <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I61" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O61" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P61" s="2">
-        <v>44970.872477233803</v>
+        <v>44970.8724772338</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -5394,54 +5376,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C62">
         <v>46</v>
       </c>
       <c r="D62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I62" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O62" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P62" s="2">
-        <v>45400.830014479157</v>
+        <v>45400.83001447916</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5450,54 +5432,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C63">
         <v>60</v>
       </c>
       <c r="D63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I63" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O63" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P63" s="2">
-        <v>43456.665688171299</v>
+        <v>43456.6656881713</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5506,54 +5488,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C64">
         <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I64" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O64" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P64" s="2">
-        <v>45332.899914814807</v>
+        <v>45332.89991481481</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5562,54 +5544,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C65">
         <v>64</v>
       </c>
       <c r="D65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I65" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O65" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P65" s="2">
-        <v>44649.845073958328</v>
+        <v>44649.84507395833</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5618,54 +5600,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C66">
         <v>55</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I66" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O66" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P66" s="2">
-        <v>44722.589382349543</v>
+        <v>44722.58938234954</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -5674,54 +5656,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C67">
         <v>84</v>
       </c>
       <c r="D67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O67" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P67" s="2">
-        <v>45575.752125405103</v>
+        <v>45575.7521254051</v>
       </c>
       <c r="Q67">
         <v>20</v>
@@ -5730,54 +5712,54 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C68">
         <v>65</v>
       </c>
       <c r="D68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I68" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P68" s="2">
-        <v>45531.863865590283</v>
+        <v>45531.86386559028</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -5786,51 +5768,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C69">
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I69" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O69" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P69" s="2">
         <v>45309.70623935185</v>
@@ -5842,54 +5824,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C70">
         <v>28</v>
       </c>
       <c r="D70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I70" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O70" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P70" s="2">
-        <v>45327.623947604166</v>
+        <v>45327.62394760417</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -5898,54 +5880,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C71">
         <v>5</v>
       </c>
       <c r="D71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I71" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O71" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P71" s="2">
-        <v>44431.593688935187</v>
+        <v>44431.59368893519</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -5954,54 +5936,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C72">
         <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I72" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O72" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P72" s="2">
-        <v>45573.693949398148</v>
+        <v>45573.69394939815</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -6010,54 +5992,54 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C73">
         <v>78</v>
       </c>
       <c r="D73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I73" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O73" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P73" s="2">
-        <v>44734.629097013887</v>
+        <v>44734.62909701389</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -6066,54 +6048,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18">
       <c r="A74" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C74">
         <v>72</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I74" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O74" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P74" s="2">
-        <v>43593.060082905089</v>
+        <v>43593.06008290509</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -6122,54 +6104,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18">
       <c r="A75" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C75">
         <v>75</v>
       </c>
       <c r="D75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I75" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O75" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P75" s="2">
-        <v>44013.509940034717</v>
+        <v>44013.50994003472</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -6178,54 +6160,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18">
       <c r="A76" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B76" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C76">
         <v>48</v>
       </c>
       <c r="D76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I76" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O76" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P76" s="2">
-        <v>45572.587491863429</v>
+        <v>45572.58749186343</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -6234,54 +6216,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B77" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C77">
         <v>81</v>
       </c>
       <c r="D77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I77" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O77" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P77" s="2">
-        <v>44573.808370520826</v>
+        <v>44573.80837052083</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -6290,54 +6272,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C78">
         <v>32</v>
       </c>
       <c r="D78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O78" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P78" s="2">
-        <v>44434.458715208333</v>
+        <v>44434.45871520833</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -6346,51 +6328,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B79" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C79">
         <v>86</v>
       </c>
       <c r="D79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I79" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O79" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P79" s="2">
         <v>44722.11440215278</v>
@@ -6402,54 +6384,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B80" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C80">
         <v>57</v>
       </c>
       <c r="D80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I80" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O80" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P80" s="2">
-        <v>45107.540165578706</v>
+        <v>45107.54016557871</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -6458,54 +6440,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B81" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C81">
         <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I81" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O81" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P81" s="2">
-        <v>44734.024976956018</v>
+        <v>44734.02497695602</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -6514,54 +6496,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B82" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C82">
         <v>54</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I82" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P82" s="2">
-        <v>44245.083088217587</v>
+        <v>44245.08308821759</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -6570,54 +6552,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B83" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C83">
         <v>19</v>
       </c>
       <c r="D83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I83" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P83" s="2">
-        <v>43857.944461990737</v>
+        <v>43857.94446199074</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -6626,54 +6608,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B84" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C84">
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I84" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O84" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P84" s="2">
-        <v>45134.904163981482</v>
+        <v>45134.90416398148</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -6682,54 +6664,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B85" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C85">
         <v>85</v>
       </c>
       <c r="D85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I85" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O85" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P85" s="2">
-        <v>44392.577119930553</v>
+        <v>44392.57711993055</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -6738,54 +6720,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B86" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C86">
         <v>63</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I86" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O86" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P86" s="2">
-        <v>45545.802047129633</v>
+        <v>45545.80204712963</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -6794,54 +6776,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B87" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C87">
         <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I87" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O87" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P87" s="2">
-        <v>45097.928874606478</v>
+        <v>45097.92887460648</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -6850,54 +6832,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B88" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C88">
         <v>0</v>
       </c>
       <c r="D88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I88" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O88" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P88" s="2">
-        <v>45556.983215717592</v>
+        <v>45556.98321571759</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -6906,54 +6888,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B89" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C89">
         <v>52</v>
       </c>
       <c r="D89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I89" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O89" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P89" s="2">
-        <v>44411.822041550928</v>
+        <v>44411.82204155093</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -6962,54 +6944,54 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18">
       <c r="A90" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C90">
         <v>12</v>
       </c>
       <c r="D90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I90" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O90" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P90" s="2">
-        <v>45574.684050520831</v>
+        <v>45574.68405052083</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -7018,54 +7000,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C91">
         <v>58</v>
       </c>
       <c r="D91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I91" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="J91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="K91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="O91" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P91" s="2">
-        <v>45087.994918472221</v>
+        <v>45087.99491847222</v>
       </c>
       <c r="Q91">
         <v>0</v>

--- a/mWater_usage/reports/mWater_usage_reports_final_excluding_hanwash.xlsx
+++ b/mWater_usage/reports/mWater_usage_reports_final_excluding_hanwash.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ad0791/Desktop/Hanwash.mwater.dev/mWater_usage/reports/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58154A6B-A87B-5645-B8CB-7251BA25B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Usage Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="inactive_members_committees" sheetId="2" r:id="rId2"/>
-    <sheet name="active_members_committees" sheetId="3" r:id="rId3"/>
+    <sheet name="inactive_users" sheetId="2" r:id="rId2"/>
+    <sheet name="active_users_last_7_days" sheetId="3" r:id="rId3"/>
     <sheet name="Clean Data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -448,11 +454,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -504,25 +510,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -560,7 +575,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -594,6 +609,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -628,9 +644,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,14 +820,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,91 +845,91 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>90</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>52</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>14</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>58</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -915,14 +939,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="148" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -933,850 +964,850 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>82</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>68</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>42</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>70</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>16</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>44</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>34</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>73</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>6</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>41</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>23</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>74</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>76</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>7</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>10</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>77</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>88</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>25</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>11</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>43</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>21</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>1</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>87</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>35</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>13</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>38</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="C37" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C38" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>24</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="C39" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>9</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C40" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="C40" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>53</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C41" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="C41" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>50</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C42" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="C42" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>59</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C43" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="C43" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>31</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C44" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="C44" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>14</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C45" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="C45" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>66</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C46" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="C46" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>47</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C47" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="C47" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>79</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C48" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="C48" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>83</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="C49" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>40</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C50" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="C50" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>51</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C51" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="C51" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>33</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="C52" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>46</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="C53" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>60</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="C54" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>4</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C55" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="C55" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>64</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C56" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="C56" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="C57" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>65</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C58" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="C58" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>36</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C59" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="C59" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>28</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C60" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="C60" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>5</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="C61" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>78</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C62" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="C62" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>72</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C63" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="C63" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>75</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C64" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="C64" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>81</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C65" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="C65" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>32</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C66" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="C66" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>86</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C67" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="C67" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>57</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C68" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="C68" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>3</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C69" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="C69" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>54</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C70" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="C70" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>19</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="C71" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>89</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="C72" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>85</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="C73" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>63</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C74" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="C74" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>49</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C75" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
+      <c r="C75" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>0</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="C76" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>52</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C77" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="C77" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>58</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1786,14 +1817,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -1804,146 +1842,146 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>45</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>71</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>62</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>67</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>17</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="C7" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>29</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="C8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="C8" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>69</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="C9" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>30</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="C10" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>84</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="C11" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>39</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>48</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1953,14 +1991,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R91"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2016,7 +2076,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>105</v>
       </c>
@@ -2063,7 +2123,7 @@
         <v>140</v>
       </c>
       <c r="P2" s="2">
-        <v>45573.83755327547</v>
+        <v>45573.837553275473</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -2072,7 +2132,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>106</v>
       </c>
@@ -2119,7 +2179,7 @@
         <v>140</v>
       </c>
       <c r="P3" s="2">
-        <v>45575.7573615162</v>
+        <v>45575.757361516196</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -2128,7 +2188,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2175,7 +2235,7 @@
         <v>140</v>
       </c>
       <c r="P4" s="2">
-        <v>45558.85641174769</v>
+        <v>45558.856411747693</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -2184,7 +2244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2240,7 +2300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -2287,7 +2347,7 @@
         <v>141</v>
       </c>
       <c r="P6" s="2">
-        <v>44153.88226246527</v>
+        <v>44153.882262465268</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -2296,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>19</v>
       </c>
@@ -2343,7 +2403,7 @@
         <v>140</v>
       </c>
       <c r="P7" s="2">
-        <v>45328.96558516203</v>
+        <v>45328.965585162026</v>
       </c>
       <c r="Q7">
         <v>0</v>
@@ -2352,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -2399,7 +2459,7 @@
         <v>141</v>
       </c>
       <c r="P8" s="2">
-        <v>44487.71019606481</v>
+        <v>44487.710196064807</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -2408,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -2464,7 +2524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -2511,7 +2571,7 @@
         <v>141</v>
       </c>
       <c r="P10" s="2">
-        <v>45532.61659094907</v>
+        <v>45532.616590949066</v>
       </c>
       <c r="Q10">
         <v>0</v>
@@ -2520,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -2576,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -2623,7 +2683,7 @@
         <v>140</v>
       </c>
       <c r="P12" s="2">
-        <v>45489.94047601852</v>
+        <v>45489.940476018521</v>
       </c>
       <c r="Q12">
         <v>0</v>
@@ -2632,7 +2692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -2679,7 +2739,7 @@
         <v>141</v>
       </c>
       <c r="P13" s="2">
-        <v>44670.99407377314</v>
+        <v>44670.994073773138</v>
       </c>
       <c r="Q13">
         <v>0</v>
@@ -2688,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -2735,7 +2795,7 @@
         <v>141</v>
       </c>
       <c r="P14" s="2">
-        <v>44172.84544836805</v>
+        <v>44172.845448368047</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -2744,7 +2804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2791,7 +2851,7 @@
         <v>141</v>
       </c>
       <c r="P15" s="2">
-        <v>45570.17039329861</v>
+        <v>45570.170393298613</v>
       </c>
       <c r="Q15">
         <v>0</v>
@@ -2800,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2847,7 +2907,7 @@
         <v>141</v>
       </c>
       <c r="P16" s="2">
-        <v>44089.78314246528</v>
+        <v>44089.783142465283</v>
       </c>
       <c r="Q16">
         <v>0</v>
@@ -2856,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2903,7 +2963,7 @@
         <v>141</v>
       </c>
       <c r="P17" s="2">
-        <v>44657.58886309028</v>
+        <v>44657.588863090277</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -2912,7 +2972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2968,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3015,7 +3075,7 @@
         <v>141</v>
       </c>
       <c r="P19" s="2">
-        <v>45225.96849716435</v>
+        <v>45225.968497164351</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -3024,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3071,7 +3131,7 @@
         <v>141</v>
       </c>
       <c r="P20" s="2">
-        <v>45222.9501906713</v>
+        <v>45222.950190671298</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -3080,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3127,7 +3187,7 @@
         <v>141</v>
       </c>
       <c r="P21" s="2">
-        <v>45225.97125875</v>
+        <v>45225.971258750003</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -3136,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:18">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -3183,7 +3243,7 @@
         <v>140</v>
       </c>
       <c r="P22" s="2">
-        <v>45545.82930024306</v>
+        <v>45545.829300243058</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -3192,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:18">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3239,7 +3299,7 @@
         <v>141</v>
       </c>
       <c r="P23" s="2">
-        <v>45225.97871137731</v>
+        <v>45225.978711377313</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -3248,7 +3308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:18">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -3295,7 +3355,7 @@
         <v>141</v>
       </c>
       <c r="P24" s="2">
-        <v>45222.97463372685</v>
+        <v>45222.974633726852</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3304,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -3351,7 +3411,7 @@
         <v>141</v>
       </c>
       <c r="P25" s="2">
-        <v>45385.62758825231</v>
+        <v>45385.627588252311</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -3360,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:18">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -3407,7 +3467,7 @@
         <v>141</v>
       </c>
       <c r="P26" s="2">
-        <v>45228.48208511574</v>
+        <v>45228.482085115742</v>
       </c>
       <c r="Q26">
         <v>0</v>
@@ -3416,7 +3476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:18">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -3463,7 +3523,7 @@
         <v>140</v>
       </c>
       <c r="P27" s="2">
-        <v>45477.03112273148</v>
+        <v>45477.031122731481</v>
       </c>
       <c r="Q27">
         <v>0</v>
@@ -3472,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -3519,7 +3579,7 @@
         <v>141</v>
       </c>
       <c r="P28" s="2">
-        <v>45225.1316425</v>
+        <v>45225.131642499997</v>
       </c>
       <c r="Q28">
         <v>0</v>
@@ -3528,7 +3588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:18">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -3575,7 +3635,7 @@
         <v>140</v>
       </c>
       <c r="P29" s="2">
-        <v>45222.97311947917</v>
+        <v>45222.973119479168</v>
       </c>
       <c r="Q29">
         <v>0</v>
@@ -3584,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:18">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -3631,7 +3691,7 @@
         <v>141</v>
       </c>
       <c r="P30" s="2">
-        <v>45222.97498119213</v>
+        <v>45222.974981192128</v>
       </c>
       <c r="Q30">
         <v>0</v>
@@ -3640,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:18">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3696,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -3743,7 +3803,7 @@
         <v>141</v>
       </c>
       <c r="P32" s="2">
-        <v>45510.86495271991</v>
+        <v>45510.864952719909</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -3752,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>108</v>
       </c>
@@ -3799,7 +3859,7 @@
         <v>141</v>
       </c>
       <c r="P33" s="2">
-        <v>45575.01514789351</v>
+        <v>45575.015147893508</v>
       </c>
       <c r="Q33">
         <v>14</v>
@@ -3808,7 +3868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:18">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -3855,7 +3915,7 @@
         <v>141</v>
       </c>
       <c r="P34" s="2">
-        <v>45222.98438766204</v>
+        <v>45222.984387662043</v>
       </c>
       <c r="Q34">
         <v>0</v>
@@ -3864,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -3911,7 +3971,7 @@
         <v>141</v>
       </c>
       <c r="P35" s="2">
-        <v>45455.91859609954</v>
+        <v>45455.918596099538</v>
       </c>
       <c r="Q35">
         <v>0</v>
@@ -3920,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:18">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>109</v>
       </c>
@@ -3967,7 +4027,7 @@
         <v>141</v>
       </c>
       <c r="P36" s="2">
-        <v>45572.97855303241</v>
+        <v>45572.978553032408</v>
       </c>
       <c r="Q36">
         <v>0</v>
@@ -3976,7 +4036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -4023,7 +4083,7 @@
         <v>141</v>
       </c>
       <c r="P37" s="2">
-        <v>45481.93964015046</v>
+        <v>45481.939640150456</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -4032,7 +4092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -4079,7 +4139,7 @@
         <v>141</v>
       </c>
       <c r="P38" s="2">
-        <v>45194.98121789352</v>
+        <v>45194.981217893517</v>
       </c>
       <c r="Q38">
         <v>0</v>
@@ -4088,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:18">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -4135,7 +4195,7 @@
         <v>141</v>
       </c>
       <c r="P39" s="2">
-        <v>45194.98825989584</v>
+        <v>45194.988259895843</v>
       </c>
       <c r="Q39">
         <v>0</v>
@@ -4144,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -4191,7 +4251,7 @@
         <v>141</v>
       </c>
       <c r="P40" s="2">
-        <v>45482.79536302084</v>
+        <v>45482.795363020843</v>
       </c>
       <c r="Q40">
         <v>0</v>
@@ -4200,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -4247,7 +4307,7 @@
         <v>141</v>
       </c>
       <c r="P41" s="2">
-        <v>45482.79536302084</v>
+        <v>45482.795363020843</v>
       </c>
       <c r="Q41">
         <v>0</v>
@@ -4256,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:18">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -4303,7 +4363,7 @@
         <v>140</v>
       </c>
       <c r="P42" s="2">
-        <v>45574.65017923611</v>
+        <v>45574.650179236109</v>
       </c>
       <c r="Q42">
         <v>0</v>
@@ -4312,7 +4372,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:18">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>111</v>
       </c>
@@ -4359,7 +4419,7 @@
         <v>140</v>
       </c>
       <c r="P43" s="2">
-        <v>45575.86550116898</v>
+        <v>45575.865501168977</v>
       </c>
       <c r="Q43">
         <v>0</v>
@@ -4368,7 +4428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="44" spans="1:18">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -4424,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:18">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>52</v>
       </c>
@@ -4471,7 +4531,7 @@
         <v>140</v>
       </c>
       <c r="P45" s="2">
-        <v>45516.56971668982</v>
+        <v>45516.569716689817</v>
       </c>
       <c r="Q45">
         <v>0</v>
@@ -4480,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>53</v>
       </c>
@@ -4527,7 +4587,7 @@
         <v>140</v>
       </c>
       <c r="P46" s="2">
-        <v>44567.07530824074</v>
+        <v>44567.075308240739</v>
       </c>
       <c r="Q46">
         <v>0</v>
@@ -4536,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:18">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>112</v>
       </c>
@@ -4583,7 +4643,7 @@
         <v>140</v>
       </c>
       <c r="P47" s="2">
-        <v>45573.57142652778</v>
+        <v>45573.571426527778</v>
       </c>
       <c r="Q47">
         <v>1</v>
@@ -4592,7 +4652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -4639,7 +4699,7 @@
         <v>140</v>
       </c>
       <c r="P48" s="2">
-        <v>45554.64625799769</v>
+        <v>45554.646257997687</v>
       </c>
       <c r="Q48">
         <v>0</v>
@@ -4648,7 +4708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>55</v>
       </c>
@@ -4695,7 +4755,7 @@
         <v>140</v>
       </c>
       <c r="P49" s="2">
-        <v>45567.76792335648</v>
+        <v>45567.767923356478</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -4704,7 +4764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -4751,7 +4811,7 @@
         <v>140</v>
       </c>
       <c r="P50" s="2">
-        <v>45330.24051365741</v>
+        <v>45330.240513657409</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -4760,7 +4820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>113</v>
       </c>
@@ -4807,7 +4867,7 @@
         <v>140</v>
       </c>
       <c r="P51" s="2">
-        <v>45571.69845997685</v>
+        <v>45571.698459976848</v>
       </c>
       <c r="Q51">
         <v>1</v>
@@ -4816,7 +4876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>57</v>
       </c>
@@ -4863,7 +4923,7 @@
         <v>140</v>
       </c>
       <c r="P52" s="2">
-        <v>44704.83096024305</v>
+        <v>44704.830960243053</v>
       </c>
       <c r="Q52">
         <v>0</v>
@@ -4872,7 +4932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>58</v>
       </c>
@@ -4919,7 +4979,7 @@
         <v>140</v>
       </c>
       <c r="P53" s="2">
-        <v>45349.61013150463</v>
+        <v>45349.610131504633</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -4928,7 +4988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>59</v>
       </c>
@@ -4975,7 +5035,7 @@
         <v>140</v>
       </c>
       <c r="P54" s="2">
-        <v>43628.53112125</v>
+        <v>43628.531121250002</v>
       </c>
       <c r="Q54">
         <v>0</v>
@@ -4984,7 +5044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>60</v>
       </c>
@@ -5031,7 +5091,7 @@
         <v>140</v>
       </c>
       <c r="P55" s="2">
-        <v>43856.65355686343</v>
+        <v>43856.653556863428</v>
       </c>
       <c r="Q55">
         <v>0</v>
@@ -5040,7 +5100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>61</v>
       </c>
@@ -5087,7 +5147,7 @@
         <v>140</v>
       </c>
       <c r="P56" s="2">
-        <v>44664.75855672454</v>
+        <v>44664.758556724541</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -5096,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>62</v>
       </c>
@@ -5143,7 +5203,7 @@
         <v>140</v>
       </c>
       <c r="P57" s="2">
-        <v>45453.8074356713</v>
+        <v>45453.807435671297</v>
       </c>
       <c r="Q57">
         <v>0</v>
@@ -5152,7 +5212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>63</v>
       </c>
@@ -5199,7 +5259,7 @@
         <v>140</v>
       </c>
       <c r="P58" s="2">
-        <v>45453.41986444445</v>
+        <v>45453.419864444448</v>
       </c>
       <c r="Q58">
         <v>0</v>
@@ -5208,7 +5268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>64</v>
       </c>
@@ -5255,7 +5315,7 @@
         <v>140</v>
       </c>
       <c r="P59" s="2">
-        <v>44391.62082002315</v>
+        <v>44391.620820023149</v>
       </c>
       <c r="Q59">
         <v>0</v>
@@ -5264,7 +5324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:18">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>65</v>
       </c>
@@ -5311,7 +5371,7 @@
         <v>140</v>
       </c>
       <c r="P60" s="2">
-        <v>44270.48004143518</v>
+        <v>44270.480041435178</v>
       </c>
       <c r="Q60">
         <v>0</v>
@@ -5320,7 +5380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>66</v>
       </c>
@@ -5367,7 +5427,7 @@
         <v>140</v>
       </c>
       <c r="P61" s="2">
-        <v>44970.8724772338</v>
+        <v>44970.872477233803</v>
       </c>
       <c r="Q61">
         <v>0</v>
@@ -5376,7 +5436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>67</v>
       </c>
@@ -5423,7 +5483,7 @@
         <v>140</v>
       </c>
       <c r="P62" s="2">
-        <v>45400.83001447916</v>
+        <v>45400.830014479157</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -5432,7 +5492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>68</v>
       </c>
@@ -5479,7 +5539,7 @@
         <v>140</v>
       </c>
       <c r="P63" s="2">
-        <v>43456.6656881713</v>
+        <v>43456.665688171299</v>
       </c>
       <c r="Q63">
         <v>0</v>
@@ -5488,7 +5548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:18">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>69</v>
       </c>
@@ -5535,7 +5595,7 @@
         <v>140</v>
       </c>
       <c r="P64" s="2">
-        <v>45332.89991481481</v>
+        <v>45332.899914814807</v>
       </c>
       <c r="Q64">
         <v>0</v>
@@ -5544,7 +5604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>70</v>
       </c>
@@ -5591,7 +5651,7 @@
         <v>140</v>
       </c>
       <c r="P65" s="2">
-        <v>44649.84507395833</v>
+        <v>44649.845073958328</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5600,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -5647,7 +5707,7 @@
         <v>140</v>
       </c>
       <c r="P66" s="2">
-        <v>44722.58938234954</v>
+        <v>44722.589382349543</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -5656,7 +5716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -5703,7 +5763,7 @@
         <v>140</v>
       </c>
       <c r="P67" s="2">
-        <v>45575.7521254051</v>
+        <v>45575.752125405103</v>
       </c>
       <c r="Q67">
         <v>20</v>
@@ -5712,7 +5772,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -5759,7 +5819,7 @@
         <v>140</v>
       </c>
       <c r="P68" s="2">
-        <v>45531.86386559028</v>
+        <v>45531.863865590283</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -5768,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -5824,7 +5884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -5871,7 +5931,7 @@
         <v>140</v>
       </c>
       <c r="P70" s="2">
-        <v>45327.62394760417</v>
+        <v>45327.623947604166</v>
       </c>
       <c r="Q70">
         <v>0</v>
@@ -5880,7 +5940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -5927,7 +5987,7 @@
         <v>140</v>
       </c>
       <c r="P71" s="2">
-        <v>44431.59368893519</v>
+        <v>44431.593688935187</v>
       </c>
       <c r="Q71">
         <v>0</v>
@@ -5936,7 +5996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -5983,7 +6043,7 @@
         <v>140</v>
       </c>
       <c r="P72" s="2">
-        <v>45573.69394939815</v>
+        <v>45573.693949398148</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -5992,7 +6052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:18">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>76</v>
       </c>
@@ -6039,7 +6099,7 @@
         <v>140</v>
       </c>
       <c r="P73" s="2">
-        <v>44734.62909701389</v>
+        <v>44734.629097013887</v>
       </c>
       <c r="Q73">
         <v>0</v>
@@ -6048,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>77</v>
       </c>
@@ -6095,7 +6155,7 @@
         <v>140</v>
       </c>
       <c r="P74" s="2">
-        <v>43593.06008290509</v>
+        <v>43593.060082905089</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -6104,7 +6164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>78</v>
       </c>
@@ -6151,7 +6211,7 @@
         <v>140</v>
       </c>
       <c r="P75" s="2">
-        <v>44013.50994003472</v>
+        <v>44013.509940034717</v>
       </c>
       <c r="Q75">
         <v>0</v>
@@ -6160,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>116</v>
       </c>
@@ -6207,7 +6267,7 @@
         <v>140</v>
       </c>
       <c r="P76" s="2">
-        <v>45572.58749186343</v>
+        <v>45572.587491863429</v>
       </c>
       <c r="Q76">
         <v>0</v>
@@ -6216,7 +6276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:18">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -6263,7 +6323,7 @@
         <v>140</v>
       </c>
       <c r="P77" s="2">
-        <v>44573.80837052083</v>
+        <v>44573.808370520826</v>
       </c>
       <c r="Q77">
         <v>0</v>
@@ -6272,7 +6332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -6319,7 +6379,7 @@
         <v>140</v>
       </c>
       <c r="P78" s="2">
-        <v>44434.45871520833</v>
+        <v>44434.458715208333</v>
       </c>
       <c r="Q78">
         <v>0</v>
@@ -6328,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -6384,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -6431,7 +6491,7 @@
         <v>140</v>
       </c>
       <c r="P80" s="2">
-        <v>45107.54016557871</v>
+        <v>45107.540165578706</v>
       </c>
       <c r="Q80">
         <v>0</v>
@@ -6440,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:18">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -6487,7 +6547,7 @@
         <v>140</v>
       </c>
       <c r="P81" s="2">
-        <v>44734.02497695602</v>
+        <v>44734.024976956018</v>
       </c>
       <c r="Q81">
         <v>0</v>
@@ -6496,7 +6556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:18">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -6543,7 +6603,7 @@
         <v>140</v>
       </c>
       <c r="P82" s="2">
-        <v>44245.08308821759</v>
+        <v>44245.083088217587</v>
       </c>
       <c r="Q82">
         <v>0</v>
@@ -6552,7 +6612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -6599,7 +6659,7 @@
         <v>140</v>
       </c>
       <c r="P83" s="2">
-        <v>43857.94446199074</v>
+        <v>43857.944461990737</v>
       </c>
       <c r="Q83">
         <v>0</v>
@@ -6608,7 +6668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -6655,7 +6715,7 @@
         <v>140</v>
       </c>
       <c r="P84" s="2">
-        <v>45134.90416398148</v>
+        <v>45134.904163981482</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -6664,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -6711,7 +6771,7 @@
         <v>140</v>
       </c>
       <c r="P85" s="2">
-        <v>44392.57711993055</v>
+        <v>44392.577119930553</v>
       </c>
       <c r="Q85">
         <v>0</v>
@@ -6720,7 +6780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -6767,7 +6827,7 @@
         <v>140</v>
       </c>
       <c r="P86" s="2">
-        <v>45545.80204712963</v>
+        <v>45545.802047129633</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -6776,7 +6836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -6823,7 +6883,7 @@
         <v>140</v>
       </c>
       <c r="P87" s="2">
-        <v>45097.92887460648</v>
+        <v>45097.928874606478</v>
       </c>
       <c r="Q87">
         <v>0</v>
@@ -6832,7 +6892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -6879,7 +6939,7 @@
         <v>140</v>
       </c>
       <c r="P88" s="2">
-        <v>45556.98321571759</v>
+        <v>45556.983215717592</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -6888,7 +6948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:18">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -6935,7 +6995,7 @@
         <v>140</v>
       </c>
       <c r="P89" s="2">
-        <v>44411.82204155093</v>
+        <v>44411.822041550928</v>
       </c>
       <c r="Q89">
         <v>0</v>
@@ -6944,7 +7004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>117</v>
       </c>
@@ -6991,7 +7051,7 @@
         <v>140</v>
       </c>
       <c r="P90" s="2">
-        <v>45574.68405052083</v>
+        <v>45574.684050520831</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -7000,7 +7060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>92</v>
       </c>
@@ -7047,7 +7107,7 @@
         <v>140</v>
       </c>
       <c r="P91" s="2">
-        <v>45087.99491847222</v>
+        <v>45087.994918472221</v>
       </c>
       <c r="Q91">
         <v>0</v>
